--- a/data/georgia_census/imereti/chiatura/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/chiatura/healthcare_staff.xlsx
@@ -1374,13 +1374,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BF05FF8-910E-4749-8336-387BDC378DC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40277F5B-72D0-4221-BF33-4DE97388CD6F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9363A39-17B7-4FB8-ADE5-8C106C887CE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CBEA17-5FD2-42E9-A63D-1A962A70C124}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9FE16FF-476D-45FC-BBEC-09019D724A8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E7DCD1B-0F93-4E44-9C14-EAB92EAC47F7}"/>
 </file>